--- a/jedai_senpuki/Format.xlsx
+++ b/jedai_senpuki/Format.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>プロジェクト名:</t>
     <rPh sb="6" eb="7">
@@ -66,6 +66,92 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・気温によってRGBLEDを変更するプログラム-北川
+・7セグメントLED外部入力を表示、温湿度→体感温度を表示-鍋谷
+・温湿度→コンパイルがうまくいかず-塩原
+・人感センサーが反応時、スイッチが押されたとき→LED点灯-島田　</t>
+    <rPh sb="1" eb="3">
+      <t>キオン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キタガワ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>オンシツド</t>
+    </rPh>
+    <rPh sb="49" eb="53">
+      <t>タイカンオンド</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ナベタニ</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>オンシツド</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>シオハラ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ジンカン</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ハンノウ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>テントウ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>シマダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・イメージの共有
+・バグチェック
+・プログラムの統合</t>
+    <rPh sb="6" eb="8">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>トウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標完成期間</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -77,7 +163,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日(&quot;aaa&quot;)&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +188,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -232,38 +327,38 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,35 +642,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="C43" sqref="C43:C47"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="3" max="3" width="43.25" customWidth="1"/>
+    <col min="3" max="3" width="58.9140625" customWidth="1"/>
     <col min="4" max="4" width="52" customWidth="1"/>
     <col min="5" max="5" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1"/>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
@@ -602,336 +697,343 @@
       <c r="B3" s="8">
         <v>43364</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="C3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="9"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="9"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="9"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="10"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="8">
         <v>43371</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="9"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="9"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="9"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="10"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="8">
         <v>43378</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="9"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="9"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="9"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="10"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="8">
         <v>43385</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="9"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="9"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="9"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="10"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="8">
         <v>43392</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="16" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="9"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="9"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="6"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="9"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="10"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="8">
         <v>43399</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="9"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="9"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="9"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="10"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="8">
         <v>43406</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="9"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="9"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="9"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="10"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="8">
         <v>43413</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="9"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="9"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="9"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="10"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="8">
         <v>43414</v>
       </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="9"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="9"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="9"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="10"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="8">
         <v>43415</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="9"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="9"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="9"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="10"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="E48:E52"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
     <mergeCell ref="B33:B37"/>
     <mergeCell ref="B38:B42"/>
     <mergeCell ref="C13:C17"/>
@@ -948,19 +1050,18 @@
     <mergeCell ref="E28:E32"/>
     <mergeCell ref="C33:C37"/>
     <mergeCell ref="D33:D37"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B48:B52"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/jedai_senpuki/Format.xlsx
+++ b/jedai_senpuki/Format.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Week" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>プロジェクト名:</t>
     <rPh sb="6" eb="7">
@@ -154,6 +154,407 @@
       <t>キカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-2 XXXXXX</t>
+  </si>
+  <si>
+    <t>2-3 XXXXXX</t>
+  </si>
+  <si>
+    <t>2-4 XXXXXX</t>
+  </si>
+  <si>
+    <t>2-5 XXXXXX</t>
+  </si>
+  <si>
+    <t>3-2 XXXXXX</t>
+  </si>
+  <si>
+    <t>3-3 XXXXXX</t>
+  </si>
+  <si>
+    <t>3-4 XXXXXX</t>
+  </si>
+  <si>
+    <t>3-5 XXXXXX</t>
+  </si>
+  <si>
+    <t>1-2 XXXXXX</t>
+  </si>
+  <si>
+    <t>1-3 XXXXXX</t>
+  </si>
+  <si>
+    <t>1-4 XXXXXX</t>
+  </si>
+  <si>
+    <t>1-5 XXXXXX</t>
+  </si>
+  <si>
+    <t>プロジェクト名：</t>
+    <rPh sb="6" eb="7">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>ＸＸＸＸＸプロジェクト</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>注意事項</t>
+    <rPh sb="0" eb="4">
+      <t>チュウイジコウ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>②分類</t>
+    <rPh sb="1" eb="3">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>③目標／項目</t>
+    <rPh sb="1" eb="3">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>④</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>月</t>
+    </r>
+  </si>
+  <si>
+    <t>全体</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>目標１：ＸＸＸＸの小型化</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>コガタカ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>でその月の実施予定を塗る</t>
+    <rPh sb="3" eb="4">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヌ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>1-1 市場調査</t>
+    <rPh sb="4" eb="6">
+      <t>シジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>1-2 ＸＸＸの選定</t>
+    <rPh sb="8" eb="10">
+      <t>センテイ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>1-3 設計</t>
+    <rPh sb="4" eb="6">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>1-4 組立</t>
+    <rPh sb="4" eb="6">
+      <t>クミタテ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>1-5 テスト</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>1-6 修正</t>
+    <rPh sb="4" eb="6">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>1-7 完成</t>
+    <rPh sb="4" eb="6">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>目標2：ＸＸＸＸ</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>2-1 XXXXXX</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>目標3：ＸＸＸＸ</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>3-1 XXXXXX</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>ｘｘ班</t>
+    <rPh sb="2" eb="3">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>目標１：ＸＸＸＸ</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>1-1 XXXXXX</t>
+    <phoneticPr fontId="16"/>
+  </si>
+  <si>
+    <t>2-1 XXXXXX</t>
+    <phoneticPr fontId="16"/>
   </si>
 </sst>
 </file>
@@ -163,7 +564,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日(&quot;aaa&quot;)&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,8 +603,208 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="HGPｺﾞｼｯｸE"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF66CC"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF66CC"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF66CC"/>
+      <name val="HGPｺﾞｼｯｸE"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF66CC"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="HGPｺﾞｼｯｸE"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0070C0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF66CC"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,8 +823,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -314,11 +939,436 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -327,38 +1377,338 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -642,7 +1992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
@@ -661,16 +2011,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
@@ -697,343 +2047,342 @@
       <c r="B3" s="8">
         <v>43364</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="9"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="9"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="9"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="10"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="8">
         <v>43371</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="9"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="9"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="9"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="10"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="8">
         <v>43378</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="9"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="9"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="9"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="10"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="8">
         <v>43385</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="9"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="9"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="9"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="10"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="8">
         <v>43392</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="16" t="s">
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="9"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="6"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="15"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="9"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="6"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="15"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="9"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="6"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="15"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="10"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="7"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="8">
         <v>43399</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="9"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="9"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="9"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="10"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="8">
         <v>43406</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="9"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="9"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="9"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="10"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="8">
         <v>43413</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="9"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="9"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="9"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="10"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="8">
         <v>43414</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="9"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="9"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="9"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="10"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="8">
         <v>43415</v>
       </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="9"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="9"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="9"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="10"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E43:E47"/>
     <mergeCell ref="B33:B37"/>
     <mergeCell ref="B38:B42"/>
     <mergeCell ref="C13:C17"/>
@@ -1050,18 +2399,19 @@
     <mergeCell ref="E28:E32"/>
     <mergeCell ref="C33:C37"/>
     <mergeCell ref="D33:D37"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="E48:E52"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1071,12 +2421,1468 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC17" sqref="AC17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="4" max="8" width="5" customWidth="1"/>
+    <col min="9" max="9" width="5.08203125" customWidth="1"/>
+    <col min="10" max="13" width="5" customWidth="1"/>
+    <col min="14" max="14" width="4.83203125" customWidth="1"/>
+    <col min="15" max="15" width="5" customWidth="1"/>
+    <col min="16" max="16" width="5.25" customWidth="1"/>
+    <col min="17" max="17" width="5.08203125" customWidth="1"/>
+    <col min="18" max="18" width="5" customWidth="1"/>
+    <col min="19" max="19" width="5.33203125" customWidth="1"/>
+    <col min="20" max="23" width="5" customWidth="1"/>
+    <col min="24" max="24" width="4.75" customWidth="1"/>
+    <col min="25" max="25" width="5" customWidth="1"/>
+    <col min="26" max="26" width="5.08203125" customWidth="1"/>
+    <col min="29" max="29" width="3.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="27"/>
+    </row>
+    <row r="2" spans="1:30" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="19"/>
+      <c r="B2" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+    </row>
+    <row r="4" spans="1:30" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="49"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="58"/>
+      <c r="B6" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="60"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="54"/>
+      <c r="AB6" s="55"/>
+      <c r="AC6" s="57"/>
+      <c r="AD6" s="66"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="58"/>
+      <c r="B7" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="68"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="69"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="69"/>
+      <c r="V7" s="69"/>
+      <c r="W7" s="74"/>
+      <c r="X7" s="69"/>
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="75"/>
+      <c r="AA7" s="54"/>
+      <c r="AB7" s="76"/>
+      <c r="AC7" s="57"/>
+      <c r="AD7" s="66"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="58"/>
+      <c r="B8" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="69"/>
+      <c r="V8" s="69"/>
+      <c r="W8" s="74"/>
+      <c r="X8" s="69"/>
+      <c r="Y8" s="69"/>
+      <c r="Z8" s="75"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="55"/>
+      <c r="AC8" s="78"/>
+      <c r="AD8" s="79"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="58"/>
+      <c r="B9" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="80"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="81"/>
+      <c r="R9" s="81"/>
+      <c r="S9" s="81"/>
+      <c r="T9" s="81"/>
+      <c r="U9" s="81"/>
+      <c r="V9" s="81"/>
+      <c r="W9" s="82"/>
+      <c r="X9" s="81"/>
+      <c r="Y9" s="81"/>
+      <c r="Z9" s="86"/>
+      <c r="AA9" s="54"/>
+      <c r="AB9" s="87"/>
+      <c r="AC9" s="88"/>
+      <c r="AD9" s="79"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="58"/>
+      <c r="B10" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="68"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="69"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="69"/>
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="75"/>
+      <c r="AA10" s="54"/>
+      <c r="AB10" s="76"/>
+      <c r="AC10" s="57"/>
+      <c r="AD10" s="66"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="90"/>
+      <c r="B11" s="91" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="92"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="95"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="96"/>
+      <c r="S11" s="96"/>
+      <c r="T11" s="93"/>
+      <c r="U11" s="93"/>
+      <c r="V11" s="93"/>
+      <c r="W11" s="94"/>
+      <c r="X11" s="93"/>
+      <c r="Y11" s="93"/>
+      <c r="Z11" s="97"/>
+      <c r="AA11" s="54"/>
+      <c r="AB11" s="98"/>
+      <c r="AC11" s="57"/>
+      <c r="AD11" s="66"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="90"/>
+      <c r="B12" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="68"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="69"/>
+      <c r="V12" s="72"/>
+      <c r="W12" s="74"/>
+      <c r="X12" s="69"/>
+      <c r="Y12" s="69"/>
+      <c r="Z12" s="75"/>
+      <c r="AA12" s="54"/>
+      <c r="AB12" s="98"/>
+      <c r="AC12" s="66"/>
+      <c r="AD12" s="66"/>
+    </row>
+    <row r="13" spans="1:30" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="90"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="93"/>
+      <c r="T13" s="93"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="93"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="93"/>
+      <c r="Y13" s="93"/>
+      <c r="Z13" s="97"/>
+      <c r="AA13" s="54"/>
+      <c r="AB13" s="55"/>
+      <c r="AC13" s="57"/>
+      <c r="AD13" s="66"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="100"/>
+      <c r="B14" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="49"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="50"/>
+      <c r="V14" s="50"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="50"/>
+      <c r="Y14" s="50"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="54"/>
+      <c r="AB14" s="55"/>
+      <c r="AC14" s="57"/>
+      <c r="AD14" s="66"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="100"/>
+      <c r="B15" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="101"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="62"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="64"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="65"/>
+      <c r="AA15" s="54"/>
+      <c r="AB15" s="55"/>
+      <c r="AC15" s="57"/>
+      <c r="AD15" s="66"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="100"/>
+      <c r="B16" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="68"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="69"/>
+      <c r="U16" s="69"/>
+      <c r="V16" s="69"/>
+      <c r="W16" s="74"/>
+      <c r="X16" s="69"/>
+      <c r="Y16" s="69"/>
+      <c r="Z16" s="75"/>
+      <c r="AA16" s="54"/>
+      <c r="AB16" s="55"/>
+      <c r="AC16" s="57"/>
+      <c r="AD16" s="66"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="100"/>
+      <c r="B17" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="68"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="69"/>
+      <c r="W17" s="74"/>
+      <c r="X17" s="69"/>
+      <c r="Y17" s="69"/>
+      <c r="Z17" s="75"/>
+      <c r="AA17" s="54"/>
+      <c r="AB17" s="102"/>
+      <c r="AC17" s="103"/>
+      <c r="AD17" s="57"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="100"/>
+      <c r="B18" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="80"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="85"/>
+      <c r="O18" s="85"/>
+      <c r="P18" s="85"/>
+      <c r="Q18" s="81"/>
+      <c r="R18" s="81"/>
+      <c r="S18" s="81"/>
+      <c r="T18" s="81"/>
+      <c r="U18" s="81"/>
+      <c r="V18" s="81"/>
+      <c r="W18" s="82"/>
+      <c r="X18" s="81"/>
+      <c r="Y18" s="81"/>
+      <c r="Z18" s="86"/>
+      <c r="AA18" s="54"/>
+      <c r="AB18" s="104"/>
+      <c r="AC18" s="57"/>
+      <c r="AD18" s="66"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="100"/>
+      <c r="B19" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="68"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="69"/>
+      <c r="S19" s="69"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="69"/>
+      <c r="V19" s="69"/>
+      <c r="W19" s="74"/>
+      <c r="X19" s="69"/>
+      <c r="Y19" s="69"/>
+      <c r="Z19" s="75"/>
+      <c r="AA19" s="54"/>
+      <c r="AB19" s="105"/>
+      <c r="AC19" s="106"/>
+      <c r="AD19" s="106"/>
+    </row>
+    <row r="20" spans="1:30" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A20" s="100"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="93"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="93"/>
+      <c r="R20" s="93"/>
+      <c r="S20" s="93"/>
+      <c r="T20" s="93"/>
+      <c r="U20" s="93"/>
+      <c r="V20" s="93"/>
+      <c r="W20" s="94"/>
+      <c r="X20" s="93"/>
+      <c r="Y20" s="93"/>
+      <c r="Z20" s="97"/>
+      <c r="AA20" s="54"/>
+      <c r="AB20" s="107"/>
+      <c r="AC20" s="108"/>
+      <c r="AD20" s="108"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="100"/>
+      <c r="B21" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="49"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="50"/>
+      <c r="Y21" s="50"/>
+      <c r="Z21" s="53"/>
+      <c r="AA21" s="54"/>
+      <c r="AB21" s="104"/>
+      <c r="AC21" s="66"/>
+      <c r="AD21" s="66"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="100"/>
+      <c r="B22" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="101"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="64"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="65"/>
+      <c r="AA22" s="54"/>
+      <c r="AB22" s="104"/>
+      <c r="AC22" s="66"/>
+      <c r="AD22" s="66"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="100"/>
+      <c r="B23" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="68"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="69"/>
+      <c r="P23" s="69"/>
+      <c r="Q23" s="69"/>
+      <c r="R23" s="69"/>
+      <c r="S23" s="69"/>
+      <c r="T23" s="69"/>
+      <c r="U23" s="69"/>
+      <c r="V23" s="69"/>
+      <c r="W23" s="74"/>
+      <c r="X23" s="69"/>
+      <c r="Y23" s="69"/>
+      <c r="Z23" s="75"/>
+      <c r="AA23" s="54"/>
+      <c r="AB23" s="104"/>
+      <c r="AC23" s="66"/>
+      <c r="AD23" s="66"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="100"/>
+      <c r="B24" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="68"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="69"/>
+      <c r="P24" s="69"/>
+      <c r="Q24" s="69"/>
+      <c r="R24" s="69"/>
+      <c r="S24" s="69"/>
+      <c r="T24" s="69"/>
+      <c r="U24" s="69"/>
+      <c r="V24" s="69"/>
+      <c r="W24" s="74"/>
+      <c r="X24" s="69"/>
+      <c r="Y24" s="69"/>
+      <c r="Z24" s="75"/>
+      <c r="AA24" s="54"/>
+      <c r="AB24" s="107"/>
+      <c r="AC24" s="79"/>
+      <c r="AD24" s="79"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="100"/>
+      <c r="B25" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="80"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="81"/>
+      <c r="M25" s="81"/>
+      <c r="N25" s="85"/>
+      <c r="O25" s="85"/>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="81"/>
+      <c r="R25" s="81"/>
+      <c r="S25" s="81"/>
+      <c r="T25" s="81"/>
+      <c r="U25" s="81"/>
+      <c r="V25" s="81"/>
+      <c r="W25" s="82"/>
+      <c r="X25" s="81"/>
+      <c r="Y25" s="81"/>
+      <c r="Z25" s="86"/>
+      <c r="AA25" s="54"/>
+      <c r="AB25" s="66"/>
+      <c r="AC25" s="66"/>
+      <c r="AD25" s="66"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="100"/>
+      <c r="B26" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="68"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="69"/>
+      <c r="R26" s="69"/>
+      <c r="S26" s="69"/>
+      <c r="T26" s="69"/>
+      <c r="U26" s="69"/>
+      <c r="V26" s="69"/>
+      <c r="W26" s="74"/>
+      <c r="X26" s="69"/>
+      <c r="Y26" s="69"/>
+      <c r="Z26" s="75"/>
+      <c r="AA26" s="54"/>
+      <c r="AB26" s="104"/>
+      <c r="AC26" s="66"/>
+      <c r="AD26" s="66"/>
+    </row>
+    <row r="27" spans="1:30" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="109"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="112"/>
+      <c r="H27" s="112"/>
+      <c r="I27" s="112"/>
+      <c r="J27" s="113"/>
+      <c r="K27" s="112"/>
+      <c r="L27" s="112"/>
+      <c r="M27" s="112"/>
+      <c r="N27" s="114"/>
+      <c r="O27" s="114"/>
+      <c r="P27" s="114"/>
+      <c r="Q27" s="112"/>
+      <c r="R27" s="112"/>
+      <c r="S27" s="112"/>
+      <c r="T27" s="112"/>
+      <c r="U27" s="112"/>
+      <c r="V27" s="112"/>
+      <c r="W27" s="113"/>
+      <c r="X27" s="112"/>
+      <c r="Y27" s="112"/>
+      <c r="Z27" s="115"/>
+      <c r="AA27" s="54"/>
+      <c r="AB27" s="104"/>
+      <c r="AC27" s="66"/>
+      <c r="AD27" s="66"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="49"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="50"/>
+      <c r="W28" s="52"/>
+      <c r="X28" s="50"/>
+      <c r="Y28" s="50"/>
+      <c r="Z28" s="53"/>
+      <c r="AA28" s="54"/>
+      <c r="AB28" s="104"/>
+      <c r="AC28" s="66"/>
+      <c r="AD28" s="66"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="58"/>
+      <c r="B29" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="101"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="62"/>
+      <c r="U29" s="62"/>
+      <c r="V29" s="62"/>
+      <c r="W29" s="64"/>
+      <c r="X29" s="62"/>
+      <c r="Y29" s="62"/>
+      <c r="Z29" s="65"/>
+      <c r="AA29" s="54"/>
+      <c r="AB29" s="104"/>
+      <c r="AC29" s="66"/>
+      <c r="AD29" s="66"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="58"/>
+      <c r="B30" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="68"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="69"/>
+      <c r="P30" s="69"/>
+      <c r="Q30" s="69"/>
+      <c r="R30" s="69"/>
+      <c r="S30" s="69"/>
+      <c r="T30" s="69"/>
+      <c r="U30" s="69"/>
+      <c r="V30" s="69"/>
+      <c r="W30" s="74"/>
+      <c r="X30" s="69"/>
+      <c r="Y30" s="69"/>
+      <c r="Z30" s="75"/>
+      <c r="AA30" s="54"/>
+      <c r="AB30" s="104"/>
+      <c r="AC30" s="66"/>
+      <c r="AD30" s="66"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="58"/>
+      <c r="B31" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="68"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="69"/>
+      <c r="Q31" s="69"/>
+      <c r="R31" s="69"/>
+      <c r="S31" s="69"/>
+      <c r="T31" s="69"/>
+      <c r="U31" s="69"/>
+      <c r="V31" s="69"/>
+      <c r="W31" s="74"/>
+      <c r="X31" s="69"/>
+      <c r="Y31" s="69"/>
+      <c r="Z31" s="75"/>
+      <c r="AA31" s="54"/>
+      <c r="AB31" s="104"/>
+      <c r="AC31" s="66"/>
+      <c r="AD31" s="66"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="58"/>
+      <c r="B32" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="80"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="85"/>
+      <c r="O32" s="85"/>
+      <c r="P32" s="85"/>
+      <c r="Q32" s="81"/>
+      <c r="R32" s="81"/>
+      <c r="S32" s="81"/>
+      <c r="T32" s="81"/>
+      <c r="U32" s="81"/>
+      <c r="V32" s="81"/>
+      <c r="W32" s="82"/>
+      <c r="X32" s="81"/>
+      <c r="Y32" s="81"/>
+      <c r="Z32" s="86"/>
+      <c r="AA32" s="54"/>
+      <c r="AB32" s="104"/>
+      <c r="AC32" s="66"/>
+      <c r="AD32" s="66"/>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="58"/>
+      <c r="B33" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="68"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="73"/>
+      <c r="Q33" s="69"/>
+      <c r="R33" s="69"/>
+      <c r="S33" s="69"/>
+      <c r="T33" s="69"/>
+      <c r="U33" s="69"/>
+      <c r="V33" s="69"/>
+      <c r="W33" s="74"/>
+      <c r="X33" s="69"/>
+      <c r="Y33" s="69"/>
+      <c r="Z33" s="75"/>
+      <c r="AA33" s="54"/>
+      <c r="AB33" s="104"/>
+      <c r="AC33" s="66"/>
+      <c r="AD33" s="66"/>
+    </row>
+    <row r="34" spans="1:30" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A34" s="90"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="93"/>
+      <c r="L34" s="93"/>
+      <c r="M34" s="93"/>
+      <c r="N34" s="95"/>
+      <c r="O34" s="95"/>
+      <c r="P34" s="95"/>
+      <c r="Q34" s="93"/>
+      <c r="R34" s="93"/>
+      <c r="S34" s="93"/>
+      <c r="T34" s="93"/>
+      <c r="U34" s="93"/>
+      <c r="V34" s="93"/>
+      <c r="W34" s="94"/>
+      <c r="X34" s="93"/>
+      <c r="Y34" s="93"/>
+      <c r="Z34" s="97"/>
+      <c r="AA34" s="54"/>
+      <c r="AB34" s="104"/>
+      <c r="AC34" s="66"/>
+      <c r="AD34" s="66"/>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="100"/>
+      <c r="B35" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="49"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="50"/>
+      <c r="S35" s="50"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="50"/>
+      <c r="V35" s="50"/>
+      <c r="W35" s="52"/>
+      <c r="X35" s="50"/>
+      <c r="Y35" s="50"/>
+      <c r="Z35" s="53"/>
+      <c r="AA35" s="54"/>
+      <c r="AB35" s="104"/>
+      <c r="AC35" s="66"/>
+      <c r="AD35" s="66"/>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="100"/>
+      <c r="B36" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="101"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="62"/>
+      <c r="N36" s="62"/>
+      <c r="O36" s="62"/>
+      <c r="P36" s="62"/>
+      <c r="Q36" s="62"/>
+      <c r="R36" s="62"/>
+      <c r="S36" s="62"/>
+      <c r="T36" s="62"/>
+      <c r="U36" s="62"/>
+      <c r="V36" s="62"/>
+      <c r="W36" s="64"/>
+      <c r="X36" s="62"/>
+      <c r="Y36" s="62"/>
+      <c r="Z36" s="65"/>
+      <c r="AA36" s="54"/>
+      <c r="AB36" s="104"/>
+      <c r="AC36" s="66"/>
+      <c r="AD36" s="66"/>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="100"/>
+      <c r="B37" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="68"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="69"/>
+      <c r="N37" s="69"/>
+      <c r="O37" s="69"/>
+      <c r="P37" s="69"/>
+      <c r="Q37" s="69"/>
+      <c r="R37" s="69"/>
+      <c r="S37" s="69"/>
+      <c r="T37" s="69"/>
+      <c r="U37" s="69"/>
+      <c r="V37" s="69"/>
+      <c r="W37" s="74"/>
+      <c r="X37" s="69"/>
+      <c r="Y37" s="69"/>
+      <c r="Z37" s="75"/>
+      <c r="AA37" s="54"/>
+      <c r="AB37" s="104"/>
+      <c r="AC37" s="66"/>
+      <c r="AD37" s="66"/>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="100"/>
+      <c r="B38" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="68"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="73"/>
+      <c r="M38" s="73"/>
+      <c r="N38" s="69"/>
+      <c r="O38" s="69"/>
+      <c r="P38" s="69"/>
+      <c r="Q38" s="69"/>
+      <c r="R38" s="69"/>
+      <c r="S38" s="69"/>
+      <c r="T38" s="69"/>
+      <c r="U38" s="69"/>
+      <c r="V38" s="69"/>
+      <c r="W38" s="74"/>
+      <c r="X38" s="69"/>
+      <c r="Y38" s="69"/>
+      <c r="Z38" s="75"/>
+      <c r="AA38" s="54"/>
+      <c r="AB38" s="104"/>
+      <c r="AC38" s="66"/>
+      <c r="AD38" s="66"/>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="100"/>
+      <c r="B39" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="80"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="82"/>
+      <c r="K39" s="81"/>
+      <c r="L39" s="81"/>
+      <c r="M39" s="81"/>
+      <c r="N39" s="85"/>
+      <c r="O39" s="85"/>
+      <c r="P39" s="85"/>
+      <c r="Q39" s="81"/>
+      <c r="R39" s="81"/>
+      <c r="S39" s="81"/>
+      <c r="T39" s="81"/>
+      <c r="U39" s="81"/>
+      <c r="V39" s="81"/>
+      <c r="W39" s="82"/>
+      <c r="X39" s="81"/>
+      <c r="Y39" s="81"/>
+      <c r="Z39" s="86"/>
+      <c r="AA39" s="54"/>
+      <c r="AB39" s="104"/>
+      <c r="AC39" s="66"/>
+      <c r="AD39" s="66"/>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="100"/>
+      <c r="B40" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="68"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="69"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="69"/>
+      <c r="M40" s="69"/>
+      <c r="N40" s="73"/>
+      <c r="O40" s="73"/>
+      <c r="P40" s="73"/>
+      <c r="Q40" s="69"/>
+      <c r="R40" s="69"/>
+      <c r="S40" s="69"/>
+      <c r="T40" s="69"/>
+      <c r="U40" s="69"/>
+      <c r="V40" s="69"/>
+      <c r="W40" s="74"/>
+      <c r="X40" s="69"/>
+      <c r="Y40" s="69"/>
+      <c r="Z40" s="75"/>
+      <c r="AA40" s="54"/>
+      <c r="AB40" s="104"/>
+      <c r="AC40" s="66"/>
+      <c r="AD40" s="66"/>
+    </row>
+    <row r="41" spans="1:30" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A41" s="109"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="112"/>
+      <c r="H41" s="112"/>
+      <c r="I41" s="112"/>
+      <c r="J41" s="113"/>
+      <c r="K41" s="112"/>
+      <c r="L41" s="112"/>
+      <c r="M41" s="112"/>
+      <c r="N41" s="114"/>
+      <c r="O41" s="114"/>
+      <c r="P41" s="114"/>
+      <c r="Q41" s="112"/>
+      <c r="R41" s="112"/>
+      <c r="S41" s="112"/>
+      <c r="T41" s="112"/>
+      <c r="U41" s="112"/>
+      <c r="V41" s="112"/>
+      <c r="W41" s="113"/>
+      <c r="X41" s="112"/>
+      <c r="Y41" s="112"/>
+      <c r="Z41" s="115"/>
+      <c r="AA41" s="54"/>
+      <c r="AB41" s="104"/>
+      <c r="AC41" s="66"/>
+      <c r="AD41" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="C2:V2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/jedai_senpuki/Format.xlsx
+++ b/jedai_senpuki/Format.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>プロジェクト名:</t>
     <rPh sb="6" eb="7">
@@ -598,6 +598,49 @@
     </rPh>
     <rPh sb="191" eb="192">
       <t>ツジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・温湿度センサーと7セグを組み合わせる-鍋谷、塩原
+・RGBLEDと温度センサーを組み合わせる-辻
+・人感センサーのプログラムを改良-島田
+・モーターとスイッチのプログラムを改良-川見
+・C言語の勉強-中林</t>
+    <rPh sb="1" eb="4">
+      <t>オンシツド</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ナベタニ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シオハラ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>オンド</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ツジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・プログラムの統合
+・バグチェック</t>
+    <rPh sb="7" eb="9">
+      <t>トウゴウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1701,6 +1744,21 @@
     <xf numFmtId="56" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1710,15 +1768,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1728,23 +1777,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2042,7 +2085,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:C7"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2056,16 +2099,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1"/>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
@@ -2089,346 +2132,349 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="102">
+      <c r="B3" s="101">
         <v>43364</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="99" t="s">
+      <c r="D3" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="99"/>
+      <c r="E3" s="104"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="103"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="103"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="103"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="104"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="102">
+      <c r="B8" s="101">
         <v>43371</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
+      <c r="C8" s="104" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="104" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="104"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="103"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="103"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="103"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="104"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="102">
+      <c r="B13" s="101">
         <v>43378</v>
       </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="103"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="103"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="103"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="104"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="102">
+      <c r="B18" s="101">
         <v>43385</v>
       </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="103"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="103"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="103"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="104"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="102">
+      <c r="B23" s="101">
         <v>43392</v>
       </c>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="105" t="s">
+      <c r="C23" s="104"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="107" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="103"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="106"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="108"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="103"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="106"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="108"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="103"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="106"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="108"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="104"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="107"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="109"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="102">
+      <c r="B28" s="101">
         <v>43399</v>
       </c>
-      <c r="C28" s="99"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="103"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="100"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="103"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="103"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="104"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="106"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="102">
+      <c r="B33" s="101">
         <v>43406</v>
       </c>
-      <c r="C33" s="99"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="99"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="104"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="103"/>
-      <c r="C34" s="100"/>
-      <c r="D34" s="100"/>
-      <c r="E34" s="100"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="103"/>
-      <c r="C35" s="100"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="100"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="103"/>
-      <c r="C36" s="100"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="100"/>
+      <c r="B36" s="102"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="104"/>
-      <c r="C37" s="101"/>
-      <c r="D37" s="101"/>
-      <c r="E37" s="101"/>
+      <c r="B37" s="103"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="106"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="102">
+      <c r="B38" s="101">
         <v>43413</v>
       </c>
-      <c r="C38" s="99"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="99"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="103"/>
-      <c r="C39" s="100"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="100"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="103"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="100"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="103"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="100"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="105"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="105"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="104"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="101"/>
-      <c r="E42" s="101"/>
+      <c r="B42" s="103"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="106"/>
+      <c r="E42" s="106"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="102">
+      <c r="B43" s="101">
         <v>43414</v>
       </c>
-      <c r="C43" s="99"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="99"/>
+      <c r="C43" s="104"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="104"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="103"/>
-      <c r="C44" s="100"/>
-      <c r="D44" s="100"/>
-      <c r="E44" s="100"/>
+      <c r="B44" s="102"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="105"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="103"/>
-      <c r="C45" s="100"/>
-      <c r="D45" s="100"/>
-      <c r="E45" s="100"/>
+      <c r="B45" s="102"/>
+      <c r="C45" s="105"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="105"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="103"/>
-      <c r="C46" s="100"/>
-      <c r="D46" s="100"/>
-      <c r="E46" s="100"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="105"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="105"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="104"/>
-      <c r="C47" s="101"/>
-      <c r="D47" s="101"/>
-      <c r="E47" s="101"/>
+      <c r="B47" s="103"/>
+      <c r="C47" s="106"/>
+      <c r="D47" s="106"/>
+      <c r="E47" s="106"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="102">
+      <c r="B48" s="101">
         <v>43415</v>
       </c>
-      <c r="C48" s="99"/>
-      <c r="D48" s="99"/>
-      <c r="E48" s="99"/>
+      <c r="C48" s="104"/>
+      <c r="D48" s="104"/>
+      <c r="E48" s="104"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="103"/>
-      <c r="C49" s="100"/>
-      <c r="D49" s="100"/>
-      <c r="E49" s="100"/>
+      <c r="B49" s="102"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="103"/>
-      <c r="C50" s="100"/>
-      <c r="D50" s="100"/>
-      <c r="E50" s="100"/>
+      <c r="B50" s="102"/>
+      <c r="C50" s="105"/>
+      <c r="D50" s="105"/>
+      <c r="E50" s="105"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="103"/>
-      <c r="C51" s="100"/>
-      <c r="D51" s="100"/>
-      <c r="E51" s="100"/>
+      <c r="B51" s="102"/>
+      <c r="C51" s="105"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="105"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="104"/>
-      <c r="C52" s="101"/>
-      <c r="D52" s="101"/>
-      <c r="E52" s="101"/>
+      <c r="B52" s="103"/>
+      <c r="C52" s="106"/>
+      <c r="D52" s="106"/>
+      <c r="E52" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E43:E47"/>
     <mergeCell ref="B33:B37"/>
     <mergeCell ref="B38:B42"/>
     <mergeCell ref="C13:C17"/>
@@ -2445,18 +2491,19 @@
     <mergeCell ref="E28:E32"/>
     <mergeCell ref="C33:C37"/>
     <mergeCell ref="D33:D37"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="E48:E52"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2604,58 +2651,58 @@
       <c r="C4" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112" t="s">
+      <c r="D4" s="110"/>
+      <c r="E4" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112" t="s">
+      <c r="F4" s="110"/>
+      <c r="G4" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112" t="s">
+      <c r="H4" s="110"/>
+      <c r="I4" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112" t="s">
+      <c r="J4" s="110"/>
+      <c r="K4" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112" t="s">
+      <c r="L4" s="110"/>
+      <c r="M4" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112" t="s">
+      <c r="N4" s="110"/>
+      <c r="O4" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112" t="s">
+      <c r="P4" s="110"/>
+      <c r="Q4" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="R4" s="112"/>
-      <c r="S4" s="112" t="s">
+      <c r="R4" s="110"/>
+      <c r="S4" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="T4" s="112"/>
-      <c r="U4" s="112" t="s">
+      <c r="T4" s="110"/>
+      <c r="U4" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="112"/>
-      <c r="W4" s="112" t="s">
+      <c r="V4" s="110"/>
+      <c r="W4" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="X4" s="112"/>
-      <c r="Y4" s="112" t="s">
+      <c r="X4" s="110"/>
+      <c r="Y4" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="Z4" s="113"/>
+      <c r="Z4" s="111"/>
       <c r="AA4" s="28"/>
       <c r="AB4" s="29"/>
       <c r="AC4" s="30"/>
       <c r="AD4" s="30"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="112" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -2693,7 +2740,7 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="111"/>
+      <c r="A6" s="113"/>
       <c r="B6" s="41" t="s">
         <v>40</v>
       </c>
@@ -2727,7 +2774,7 @@
       <c r="AD6" s="48"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="111"/>
+      <c r="A7" s="113"/>
       <c r="B7" s="49" t="s">
         <v>41</v>
       </c>
@@ -2761,7 +2808,7 @@
       <c r="AD7" s="48"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="111"/>
+      <c r="A8" s="113"/>
       <c r="B8" s="49" t="s">
         <v>42</v>
       </c>
@@ -2795,7 +2842,7 @@
       <c r="AD8" s="61"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="111"/>
+      <c r="A9" s="113"/>
       <c r="B9" s="49" t="s">
         <v>43</v>
       </c>
@@ -2829,7 +2876,7 @@
       <c r="AD9" s="61"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="111"/>
+      <c r="A10" s="113"/>
       <c r="B10" s="49" t="s">
         <v>44</v>
       </c>
@@ -3435,7 +3482,7 @@
       <c r="AD27" s="48"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="110" t="s">
+      <c r="A28" s="112" t="s">
         <v>51</v>
       </c>
       <c r="B28" s="31" t="s">
@@ -3471,7 +3518,7 @@
       <c r="AD28" s="48"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="111"/>
+      <c r="A29" s="113"/>
       <c r="B29" s="41" t="s">
         <v>53</v>
       </c>
@@ -3505,7 +3552,7 @@
       <c r="AD29" s="48"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="111"/>
+      <c r="A30" s="113"/>
       <c r="B30" s="41" t="s">
         <v>16</v>
       </c>
@@ -3539,7 +3586,7 @@
       <c r="AD30" s="48"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="111"/>
+      <c r="A31" s="113"/>
       <c r="B31" s="41" t="s">
         <v>17</v>
       </c>
@@ -3573,7 +3620,7 @@
       <c r="AD31" s="48"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="111"/>
+      <c r="A32" s="113"/>
       <c r="B32" s="41" t="s">
         <v>18</v>
       </c>
@@ -3607,7 +3654,7 @@
       <c r="AD32" s="48"/>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="111"/>
+      <c r="A33" s="113"/>
       <c r="B33" s="41" t="s">
         <v>19</v>
       </c>
@@ -3910,6 +3957,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
     <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="C2:V2"/>
@@ -3922,11 +3974,6 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:P4"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/jedai_senpuki/Format.xlsx
+++ b/jedai_senpuki/Format.xlsx
@@ -20,14 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
-  <si>
-    <t>プロジェクト名:</t>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
   <si>
     <t>　日付　</t>
     <rPh sb="1" eb="3">
@@ -641,6 +634,101 @@
 ・バグチェック</t>
     <rPh sb="7" eb="9">
       <t>トウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">北川 - 温湿度センサーとLED捜査は終了 何かと組み合わせることを検討
+塩原,鍋谷 センサーから取った値を7セグメントで出力
+島田　- 人感センサーとほかの何かをつなげたい
+</t>
+    <rPh sb="0" eb="2">
+      <t>キタガワ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>オンシツド</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シオハラ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ナベタニ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>シマダ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ジンカン</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各自の統合
+今週か来週中にはプログラムを終わらせたい</t>
+    <rPh sb="0" eb="2">
+      <t>カクジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウゴウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コンシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ライシュウチュウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シリアルモニタに値が出ない - serial.beginをしてないのでは？</t>
+    <rPh sb="8" eb="9">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト名:ジェダイ扇風機</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>センプウキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1744,51 +1832,48 @@
     <xf numFmtId="56" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1797,6 +1882,9 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2085,7 +2173,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8:D12"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2099,32 +2187,32 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1"/>
-      <c r="B1" s="99" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
+      <c r="B1" s="116" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>3</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -2132,349 +2220,356 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="101">
+      <c r="B3" s="102">
         <v>43364</v>
       </c>
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="99" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="99"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="103"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="103"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="103"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="104"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="102">
+        <v>43371</v>
+      </c>
+      <c r="C8" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="104" t="s">
+      <c r="D8" s="99" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="99"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="103"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="103"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="103"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="104"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="102">
+        <v>43378</v>
+      </c>
+      <c r="C13" s="99" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="99" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="103"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="103"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="103"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="104"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="102">
+        <v>43385</v>
+      </c>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="103"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="103"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="103"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="104"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="102">
+        <v>43392</v>
+      </c>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="104"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="102"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="102"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="102"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="103"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="101">
-        <v>43371</v>
-      </c>
-      <c r="C8" s="104" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="104" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="104"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="102"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="102"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="102"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="103"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="101">
-        <v>43378</v>
-      </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="102"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="105"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="102"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="102"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="103"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="101">
-        <v>43385</v>
-      </c>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="102"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="102"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="102"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="103"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="101">
-        <v>43392</v>
-      </c>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="107" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="102"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="108"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="106"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="102"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="108"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="106"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="102"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="108"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="106"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="103"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="109"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="107"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="101">
+      <c r="B28" s="102">
         <v>43399</v>
       </c>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="102"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="100"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="102"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="105"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="102"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="100"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="103"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="106"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="101"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="101">
+      <c r="B33" s="102">
         <v>43406</v>
       </c>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="104"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="99"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="102"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="100"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="102"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="102"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="105"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="100"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="103"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="106"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="101"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="101">
+      <c r="B38" s="102">
         <v>43413</v>
       </c>
-      <c r="C38" s="104"/>
-      <c r="D38" s="104"/>
-      <c r="E38" s="104"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="99"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="102"/>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="100"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="102"/>
-      <c r="C40" s="105"/>
-      <c r="D40" s="105"/>
-      <c r="E40" s="105"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="100"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="102"/>
-      <c r="C41" s="105"/>
-      <c r="D41" s="105"/>
-      <c r="E41" s="105"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="100"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="103"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="106"/>
-      <c r="E42" s="106"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="101"/>
+      <c r="E42" s="101"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="101">
+      <c r="B43" s="102">
         <v>43414</v>
       </c>
-      <c r="C43" s="104"/>
-      <c r="D43" s="104"/>
-      <c r="E43" s="104"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="99"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="102"/>
-      <c r="C44" s="105"/>
-      <c r="D44" s="105"/>
-      <c r="E44" s="105"/>
+      <c r="B44" s="103"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="100"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="102"/>
-      <c r="C45" s="105"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="105"/>
+      <c r="B45" s="103"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="100"/>
+      <c r="E45" s="100"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="102"/>
-      <c r="C46" s="105"/>
-      <c r="D46" s="105"/>
-      <c r="E46" s="105"/>
+      <c r="B46" s="103"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="100"/>
+      <c r="E46" s="100"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="103"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="106"/>
-      <c r="E47" s="106"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="101"/>
+      <c r="D47" s="101"/>
+      <c r="E47" s="101"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="101">
+      <c r="B48" s="102">
         <v>43415</v>
       </c>
-      <c r="C48" s="104"/>
-      <c r="D48" s="104"/>
-      <c r="E48" s="104"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="99"/>
+      <c r="E48" s="99"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="102"/>
-      <c r="C49" s="105"/>
-      <c r="D49" s="105"/>
-      <c r="E49" s="105"/>
+      <c r="B49" s="103"/>
+      <c r="C49" s="100"/>
+      <c r="D49" s="100"/>
+      <c r="E49" s="100"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="102"/>
-      <c r="C50" s="105"/>
-      <c r="D50" s="105"/>
-      <c r="E50" s="105"/>
+      <c r="B50" s="103"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="100"/>
+      <c r="E50" s="100"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="102"/>
-      <c r="C51" s="105"/>
-      <c r="D51" s="105"/>
-      <c r="E51" s="105"/>
+      <c r="B51" s="103"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="100"/>
+      <c r="E51" s="100"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="103"/>
-      <c r="C52" s="106"/>
-      <c r="D52" s="106"/>
-      <c r="E52" s="106"/>
+      <c r="B52" s="104"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="101"/>
+      <c r="E52" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="E48:E52"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
     <mergeCell ref="B33:B37"/>
     <mergeCell ref="B38:B42"/>
     <mergeCell ref="C13:C17"/>
@@ -2491,19 +2586,18 @@
     <mergeCell ref="E28:E32"/>
     <mergeCell ref="C33:C37"/>
     <mergeCell ref="D33:D37"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B48:B52"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2574,30 +2668,30 @@
     <row r="2" spans="1:30" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8"/>
       <c r="B2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="114" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
+      <c r="V2" s="113"/>
       <c r="W2" s="18"/>
       <c r="X2" s="18"/>
       <c r="Y2" s="8"/>
@@ -2606,7 +2700,7 @@
       <c r="AB2" s="19"/>
       <c r="AC2" s="20"/>
       <c r="AD2" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -2620,8 +2714,8 @@
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
       <c r="J3" s="23"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
       <c r="M3" s="22"/>
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
@@ -2629,8 +2723,8 @@
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
       <c r="S3" s="22"/>
-      <c r="T3" s="115"/>
-      <c r="U3" s="115"/>
+      <c r="T3" s="114"/>
+      <c r="U3" s="114"/>
       <c r="V3" s="23"/>
       <c r="W3" s="22"/>
       <c r="X3" s="22"/>
@@ -2643,70 +2737,70 @@
     </row>
     <row r="4" spans="1:30" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="C4" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="D4" s="111"/>
+      <c r="E4" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110" t="s">
+      <c r="F4" s="111"/>
+      <c r="G4" s="111" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110" t="s">
+      <c r="H4" s="111"/>
+      <c r="I4" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110" t="s">
+      <c r="J4" s="111"/>
+      <c r="K4" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110" t="s">
+      <c r="L4" s="111"/>
+      <c r="M4" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110" t="s">
+      <c r="N4" s="111"/>
+      <c r="O4" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110" t="s">
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="110"/>
-      <c r="Q4" s="110" t="s">
+      <c r="R4" s="111"/>
+      <c r="S4" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="R4" s="110"/>
-      <c r="S4" s="110" t="s">
+      <c r="T4" s="111"/>
+      <c r="U4" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="T4" s="110"/>
-      <c r="U4" s="110" t="s">
+      <c r="V4" s="111"/>
+      <c r="W4" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="110"/>
-      <c r="W4" s="110" t="s">
+      <c r="X4" s="111"/>
+      <c r="Y4" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="X4" s="110"/>
-      <c r="Y4" s="110" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z4" s="111"/>
+      <c r="Z4" s="112"/>
       <c r="AA4" s="28"/>
       <c r="AB4" s="29"/>
       <c r="AC4" s="30"/>
       <c r="AD4" s="30"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="109" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>37</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>38</v>
       </c>
       <c r="C5" s="32"/>
       <c r="D5" s="33"/>
@@ -2736,13 +2830,13 @@
       <c r="AB5" s="38"/>
       <c r="AC5" s="39"/>
       <c r="AD5" s="40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="110"/>
+      <c r="B6" s="41" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="113"/>
-      <c r="B6" s="41" t="s">
-        <v>40</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="43"/>
@@ -2774,9 +2868,9 @@
       <c r="AD6" s="48"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="113"/>
+      <c r="A7" s="110"/>
       <c r="B7" s="49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="50"/>
       <c r="D7" s="51"/>
@@ -2808,9 +2902,9 @@
       <c r="AD7" s="48"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="113"/>
+      <c r="A8" s="110"/>
       <c r="B8" s="49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="50"/>
       <c r="D8" s="51"/>
@@ -2842,9 +2936,9 @@
       <c r="AD8" s="61"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="113"/>
+      <c r="A9" s="110"/>
       <c r="B9" s="49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="62"/>
       <c r="D9" s="63"/>
@@ -2876,9 +2970,9 @@
       <c r="AD9" s="61"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="113"/>
+      <c r="A10" s="110"/>
       <c r="B10" s="49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="50"/>
       <c r="D10" s="51"/>
@@ -2912,7 +3006,7 @@
     <row r="11" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="72"/>
       <c r="B11" s="73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="74"/>
       <c r="D11" s="75"/>
@@ -2946,7 +3040,7 @@
     <row r="12" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="72"/>
       <c r="B12" s="49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="50"/>
       <c r="D12" s="51"/>
@@ -3012,7 +3106,7 @@
     <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="82"/>
       <c r="B14" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="33"/>
@@ -3046,7 +3140,7 @@
     <row r="15" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="82"/>
       <c r="B15" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="83"/>
       <c r="D15" s="44"/>
@@ -3080,7 +3174,7 @@
     <row r="16" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="82"/>
       <c r="B16" s="41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
@@ -3114,7 +3208,7 @@
     <row r="17" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="82"/>
       <c r="B17" s="41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="50"/>
       <c r="D17" s="51"/>
@@ -3148,7 +3242,7 @@
     <row r="18" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="82"/>
       <c r="B18" s="41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="62"/>
       <c r="D18" s="63"/>
@@ -3182,7 +3276,7 @@
     <row r="19" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="82"/>
       <c r="B19" s="41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="50"/>
       <c r="D19" s="51"/>
@@ -3248,7 +3342,7 @@
     <row r="21" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="82"/>
       <c r="B21" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="32"/>
       <c r="D21" s="33"/>
@@ -3282,7 +3376,7 @@
     <row r="22" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="82"/>
       <c r="B22" s="41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="83"/>
       <c r="D22" s="44"/>
@@ -3316,7 +3410,7 @@
     <row r="23" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="82"/>
       <c r="B23" s="41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="50"/>
       <c r="D23" s="51"/>
@@ -3350,7 +3444,7 @@
     <row r="24" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="82"/>
       <c r="B24" s="41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="50"/>
       <c r="D24" s="51"/>
@@ -3384,7 +3478,7 @@
     <row r="25" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="82"/>
       <c r="B25" s="41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" s="62"/>
       <c r="D25" s="63"/>
@@ -3418,7 +3512,7 @@
     <row r="26" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="82"/>
       <c r="B26" s="41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" s="50"/>
       <c r="D26" s="51"/>
@@ -3482,11 +3576,11 @@
       <c r="AD27" s="48"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="112" t="s">
+      <c r="A28" s="109" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="31" t="s">
         <v>51</v>
-      </c>
-      <c r="B28" s="31" t="s">
-        <v>52</v>
       </c>
       <c r="C28" s="32"/>
       <c r="D28" s="33"/>
@@ -3518,9 +3612,9 @@
       <c r="AD28" s="48"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="113"/>
+      <c r="A29" s="110"/>
       <c r="B29" s="41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="83"/>
       <c r="D29" s="44"/>
@@ -3552,9 +3646,9 @@
       <c r="AD29" s="48"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="113"/>
+      <c r="A30" s="110"/>
       <c r="B30" s="41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" s="50"/>
       <c r="D30" s="51"/>
@@ -3586,9 +3680,9 @@
       <c r="AD30" s="48"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="113"/>
+      <c r="A31" s="110"/>
       <c r="B31" s="41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C31" s="50"/>
       <c r="D31" s="51"/>
@@ -3620,9 +3714,9 @@
       <c r="AD31" s="48"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="113"/>
+      <c r="A32" s="110"/>
       <c r="B32" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C32" s="62"/>
       <c r="D32" s="63"/>
@@ -3654,9 +3748,9 @@
       <c r="AD32" s="48"/>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="113"/>
+      <c r="A33" s="110"/>
       <c r="B33" s="41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C33" s="50"/>
       <c r="D33" s="51"/>
@@ -3722,7 +3816,7 @@
     <row r="35" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="82"/>
       <c r="B35" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" s="32"/>
       <c r="D35" s="33"/>
@@ -3756,7 +3850,7 @@
     <row r="36" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="82"/>
       <c r="B36" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C36" s="83"/>
       <c r="D36" s="44"/>
@@ -3790,7 +3884,7 @@
     <row r="37" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="82"/>
       <c r="B37" s="41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37" s="50"/>
       <c r="D37" s="51"/>
@@ -3824,7 +3918,7 @@
     <row r="38" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="82"/>
       <c r="B38" s="41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C38" s="50"/>
       <c r="D38" s="51"/>
@@ -3858,7 +3952,7 @@
     <row r="39" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="82"/>
       <c r="B39" s="41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39" s="62"/>
       <c r="D39" s="63"/>
@@ -3892,7 +3986,7 @@
     <row r="40" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="82"/>
       <c r="B40" s="41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C40" s="50"/>
       <c r="D40" s="51"/>
@@ -3957,11 +4051,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
     <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="C2:V2"/>
@@ -3974,6 +4063,11 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:P4"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/jedai_senpuki/Format.xlsx
+++ b/jedai_senpuki/Format.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
   <si>
     <t>　日付　</t>
     <rPh sb="1" eb="3">
@@ -729,6 +729,70 @@
     </rPh>
     <rPh sb="12" eb="15">
       <t>センプウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・工大祭</t>
+    <rPh sb="1" eb="3">
+      <t>コウダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・計画見直し</t>
+    <rPh sb="1" eb="3">
+      <t>ケイカク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・デザイン決め
+・回路整理
+・作成開始</t>
+    <rPh sb="5" eb="6">
+      <t>ギ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイロ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・現在できていることと、できていないことを整理し、今後の計画を決める
+・チーム再編成</t>
+    <rPh sb="1" eb="3">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セイリ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コンゴ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ケイカク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>サイヘンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1832,6 +1896,21 @@
     <xf numFmtId="56" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1841,15 +1920,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1859,8 +1929,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
@@ -1868,12 +1941,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1882,9 +1949,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2169,11 +2233,11 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="J18" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13:E17"/>
+      <selection pane="bottomRight" activeCell="C28" sqref="C28:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2187,16 +2251,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1"/>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
@@ -2220,356 +2284,363 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="102">
+      <c r="B3" s="101">
         <v>43364</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="99" t="s">
+      <c r="D3" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="99"/>
+      <c r="E3" s="104"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="103"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="103"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="103"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="104"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="102">
+      <c r="B8" s="101">
         <v>43371</v>
       </c>
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="99" t="s">
+      <c r="D8" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="99"/>
+      <c r="E8" s="104"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="103"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="103"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="103"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="104"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="102">
+      <c r="B13" s="101">
         <v>43378</v>
       </c>
-      <c r="C13" s="99" t="s">
+      <c r="C13" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="99" t="s">
+      <c r="D13" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="99" t="s">
+      <c r="E13" s="104" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="103"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="103"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="103"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="104"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="102">
+      <c r="B18" s="101">
         <v>43385</v>
       </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="103"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="103"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="103"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="104"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="102">
+      <c r="B23" s="101">
         <v>43392</v>
       </c>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="105" t="s">
+      <c r="C23" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="107" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="103"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="106"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="108"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="103"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="106"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="108"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="103"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="106"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="108"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="104"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="107"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="109"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="102">
+      <c r="B28" s="101">
         <v>43399</v>
       </c>
-      <c r="C28" s="99"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
+      <c r="C28" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="104"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="103"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="100"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="103"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="103"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="104"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="106"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="102">
+      <c r="B33" s="101">
         <v>43406</v>
       </c>
-      <c r="C33" s="99"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="99"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="104"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="103"/>
-      <c r="C34" s="100"/>
-      <c r="D34" s="100"/>
-      <c r="E34" s="100"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="103"/>
-      <c r="C35" s="100"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="100"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="103"/>
-      <c r="C36" s="100"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="100"/>
+      <c r="B36" s="102"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="104"/>
-      <c r="C37" s="101"/>
-      <c r="D37" s="101"/>
-      <c r="E37" s="101"/>
+      <c r="B37" s="103"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="106"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="102">
+      <c r="B38" s="101">
         <v>43413</v>
       </c>
-      <c r="C38" s="99"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="99"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="103"/>
-      <c r="C39" s="100"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="100"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="103"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="100"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="103"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="100"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="105"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="105"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="104"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="101"/>
-      <c r="E42" s="101"/>
+      <c r="B42" s="103"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="106"/>
+      <c r="E42" s="106"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="102">
+      <c r="B43" s="101">
         <v>43414</v>
       </c>
-      <c r="C43" s="99"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="99"/>
+      <c r="C43" s="104"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="104"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="103"/>
-      <c r="C44" s="100"/>
-      <c r="D44" s="100"/>
-      <c r="E44" s="100"/>
+      <c r="B44" s="102"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="105"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="103"/>
-      <c r="C45" s="100"/>
-      <c r="D45" s="100"/>
-      <c r="E45" s="100"/>
+      <c r="B45" s="102"/>
+      <c r="C45" s="105"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="105"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="103"/>
-      <c r="C46" s="100"/>
-      <c r="D46" s="100"/>
-      <c r="E46" s="100"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="105"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="105"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="104"/>
-      <c r="C47" s="101"/>
-      <c r="D47" s="101"/>
-      <c r="E47" s="101"/>
+      <c r="B47" s="103"/>
+      <c r="C47" s="106"/>
+      <c r="D47" s="106"/>
+      <c r="E47" s="106"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="102">
+      <c r="B48" s="101">
         <v>43415</v>
       </c>
-      <c r="C48" s="99"/>
-      <c r="D48" s="99"/>
-      <c r="E48" s="99"/>
+      <c r="C48" s="104"/>
+      <c r="D48" s="104"/>
+      <c r="E48" s="104"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="103"/>
-      <c r="C49" s="100"/>
-      <c r="D49" s="100"/>
-      <c r="E49" s="100"/>
+      <c r="B49" s="102"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="103"/>
-      <c r="C50" s="100"/>
-      <c r="D50" s="100"/>
-      <c r="E50" s="100"/>
+      <c r="B50" s="102"/>
+      <c r="C50" s="105"/>
+      <c r="D50" s="105"/>
+      <c r="E50" s="105"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="103"/>
-      <c r="C51" s="100"/>
-      <c r="D51" s="100"/>
-      <c r="E51" s="100"/>
+      <c r="B51" s="102"/>
+      <c r="C51" s="105"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="105"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="104"/>
-      <c r="C52" s="101"/>
-      <c r="D52" s="101"/>
-      <c r="E52" s="101"/>
+      <c r="B52" s="103"/>
+      <c r="C52" s="106"/>
+      <c r="D52" s="106"/>
+      <c r="E52" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E43:E47"/>
     <mergeCell ref="B33:B37"/>
     <mergeCell ref="B38:B42"/>
     <mergeCell ref="C13:C17"/>
@@ -2586,18 +2657,19 @@
     <mergeCell ref="E28:E32"/>
     <mergeCell ref="C33:C37"/>
     <mergeCell ref="D33:D37"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="E48:E52"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2670,28 +2742,28 @@
       <c r="B2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="113" t="s">
+      <c r="C2" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="113"/>
-      <c r="V2" s="113"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
       <c r="W2" s="18"/>
       <c r="X2" s="18"/>
       <c r="Y2" s="8"/>
@@ -2714,8 +2786,8 @@
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
       <c r="J3" s="23"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
       <c r="M3" s="22"/>
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
@@ -2723,8 +2795,8 @@
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
       <c r="S3" s="22"/>
-      <c r="T3" s="114"/>
-      <c r="U3" s="114"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
       <c r="V3" s="23"/>
       <c r="W3" s="22"/>
       <c r="X3" s="22"/>
@@ -2742,61 +2814,61 @@
       <c r="B4" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111" t="s">
+      <c r="D4" s="110"/>
+      <c r="E4" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111" t="s">
+      <c r="F4" s="110"/>
+      <c r="G4" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111" t="s">
+      <c r="H4" s="110"/>
+      <c r="I4" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111" t="s">
+      <c r="J4" s="110"/>
+      <c r="K4" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111" t="s">
+      <c r="L4" s="110"/>
+      <c r="M4" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="111"/>
-      <c r="O4" s="111" t="s">
+      <c r="N4" s="110"/>
+      <c r="O4" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="111" t="s">
+      <c r="P4" s="110"/>
+      <c r="Q4" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="R4" s="111"/>
-      <c r="S4" s="111" t="s">
+      <c r="R4" s="110"/>
+      <c r="S4" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="111"/>
-      <c r="U4" s="111" t="s">
+      <c r="T4" s="110"/>
+      <c r="U4" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="111"/>
-      <c r="W4" s="111" t="s">
+      <c r="V4" s="110"/>
+      <c r="W4" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="X4" s="111"/>
-      <c r="Y4" s="111" t="s">
+      <c r="X4" s="110"/>
+      <c r="Y4" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="Z4" s="112"/>
+      <c r="Z4" s="111"/>
       <c r="AA4" s="28"/>
       <c r="AB4" s="29"/>
       <c r="AC4" s="30"/>
       <c r="AD4" s="30"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="112" t="s">
         <v>36</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -2834,7 +2906,7 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="110"/>
+      <c r="A6" s="113"/>
       <c r="B6" s="41" t="s">
         <v>39</v>
       </c>
@@ -2868,7 +2940,7 @@
       <c r="AD6" s="48"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="110"/>
+      <c r="A7" s="113"/>
       <c r="B7" s="49" t="s">
         <v>40</v>
       </c>
@@ -2902,7 +2974,7 @@
       <c r="AD7" s="48"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="110"/>
+      <c r="A8" s="113"/>
       <c r="B8" s="49" t="s">
         <v>41</v>
       </c>
@@ -2936,7 +3008,7 @@
       <c r="AD8" s="61"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="110"/>
+      <c r="A9" s="113"/>
       <c r="B9" s="49" t="s">
         <v>42</v>
       </c>
@@ -2970,7 +3042,7 @@
       <c r="AD9" s="61"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="110"/>
+      <c r="A10" s="113"/>
       <c r="B10" s="49" t="s">
         <v>43</v>
       </c>
@@ -3576,7 +3648,7 @@
       <c r="AD27" s="48"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="109" t="s">
+      <c r="A28" s="112" t="s">
         <v>50</v>
       </c>
       <c r="B28" s="31" t="s">
@@ -3612,7 +3684,7 @@
       <c r="AD28" s="48"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="110"/>
+      <c r="A29" s="113"/>
       <c r="B29" s="41" t="s">
         <v>52</v>
       </c>
@@ -3646,7 +3718,7 @@
       <c r="AD29" s="48"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="110"/>
+      <c r="A30" s="113"/>
       <c r="B30" s="41" t="s">
         <v>15</v>
       </c>
@@ -3680,7 +3752,7 @@
       <c r="AD30" s="48"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="110"/>
+      <c r="A31" s="113"/>
       <c r="B31" s="41" t="s">
         <v>16</v>
       </c>
@@ -3714,7 +3786,7 @@
       <c r="AD31" s="48"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="110"/>
+      <c r="A32" s="113"/>
       <c r="B32" s="41" t="s">
         <v>17</v>
       </c>
@@ -3748,7 +3820,7 @@
       <c r="AD32" s="48"/>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="110"/>
+      <c r="A33" s="113"/>
       <c r="B33" s="41" t="s">
         <v>18</v>
       </c>
@@ -4051,6 +4123,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
     <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="C2:V2"/>
@@ -4063,11 +4140,6 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:P4"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/jedai_senpuki/Format.xlsx
+++ b/jedai_senpuki/Format.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
   <si>
     <t>　日付　</t>
     <rPh sb="1" eb="3">
@@ -793,6 +793,90 @@
     </rPh>
     <rPh sb="39" eb="42">
       <t>サイヘンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・鍋谷-人感センサーを外した、プログラム修正
+・塩原-温湿度センサーの取り換え
+・川見-アプリ導入
+・島田-温湿度センサーの取り換え
+・辻-LEDなど
+・都竹-人感センサーを外した</t>
+    <rPh sb="1" eb="3">
+      <t>アホ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジンカン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ハズ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シオハラ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>オンシツド</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カワミ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ドウニュウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>シマダ</t>
+    </rPh>
+    <rPh sb="54" eb="57">
+      <t>オンシツド</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ツジ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ツヅク</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ジンカン</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>ハズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LEDを取り付け、はんだ付け
+外装製作
+</t>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヅ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガイソウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セイサク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1896,50 +1980,50 @@
     <xf numFmtId="56" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2233,11 +2317,11 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="J18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="J29" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28:C32"/>
+      <selection pane="bottomRight" activeCell="D38" sqref="D38:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2251,16 +2335,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1"/>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
@@ -2284,363 +2368,368 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="101">
+      <c r="B3" s="102">
         <v>43364</v>
       </c>
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="104" t="s">
+      <c r="D3" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="104"/>
+      <c r="E3" s="99"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="102"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="102"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="102"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="103"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="101">
+      <c r="B8" s="102">
         <v>43371</v>
       </c>
-      <c r="C8" s="104" t="s">
+      <c r="C8" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="104" t="s">
+      <c r="D8" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="104"/>
+      <c r="E8" s="99"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="102"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="102"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="102"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="103"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="101">
+      <c r="B13" s="102">
         <v>43378</v>
       </c>
-      <c r="C13" s="104" t="s">
+      <c r="C13" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="104" t="s">
+      <c r="D13" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="104" t="s">
+      <c r="E13" s="99" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="102"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="105"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="102"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="102"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="103"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="101">
+      <c r="B18" s="102">
         <v>43385</v>
       </c>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="102"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="102"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="102"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="103"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="101">
+      <c r="B23" s="102">
         <v>43392</v>
       </c>
-      <c r="C23" s="104" t="s">
+      <c r="C23" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="104" t="s">
+      <c r="D23" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="107" t="s">
+      <c r="E23" s="105" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="102"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="108"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="106"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="102"/>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="108"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="106"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="102"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="108"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="106"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="103"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="109"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="107"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="101">
+      <c r="B28" s="102">
         <v>43399</v>
       </c>
-      <c r="C28" s="104" t="s">
+      <c r="C28" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="104" t="s">
+      <c r="D28" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="104"/>
+      <c r="E28" s="99"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="102"/>
-      <c r="C29" s="105"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="100"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="102"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="105"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="102"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="100"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="103"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="106"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="101"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="101">
+      <c r="B33" s="102">
         <v>43406</v>
       </c>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="104"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="99"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="102"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="100"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="102"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="102"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="105"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="100"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="103"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="106"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="101"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="101">
+      <c r="B38" s="102">
         <v>43413</v>
       </c>
-      <c r="C38" s="104"/>
-      <c r="D38" s="104"/>
-      <c r="E38" s="104"/>
+      <c r="C38" s="99" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="99" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="99"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="102"/>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="100"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="102"/>
-      <c r="C40" s="105"/>
-      <c r="D40" s="105"/>
-      <c r="E40" s="105"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="100"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="102"/>
-      <c r="C41" s="105"/>
-      <c r="D41" s="105"/>
-      <c r="E41" s="105"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="100"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="103"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="106"/>
-      <c r="E42" s="106"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="101"/>
+      <c r="E42" s="101"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="101">
+      <c r="B43" s="102">
         <v>43414</v>
       </c>
-      <c r="C43" s="104"/>
-      <c r="D43" s="104"/>
-      <c r="E43" s="104"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="99"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="102"/>
-      <c r="C44" s="105"/>
-      <c r="D44" s="105"/>
-      <c r="E44" s="105"/>
+      <c r="B44" s="103"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="100"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="102"/>
-      <c r="C45" s="105"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="105"/>
+      <c r="B45" s="103"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="100"/>
+      <c r="E45" s="100"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="102"/>
-      <c r="C46" s="105"/>
-      <c r="D46" s="105"/>
-      <c r="E46" s="105"/>
+      <c r="B46" s="103"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="100"/>
+      <c r="E46" s="100"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="103"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="106"/>
-      <c r="E47" s="106"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="101"/>
+      <c r="D47" s="101"/>
+      <c r="E47" s="101"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="101">
+      <c r="B48" s="102">
         <v>43415</v>
       </c>
-      <c r="C48" s="104"/>
-      <c r="D48" s="104"/>
-      <c r="E48" s="104"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="99"/>
+      <c r="E48" s="99"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="102"/>
-      <c r="C49" s="105"/>
-      <c r="D49" s="105"/>
-      <c r="E49" s="105"/>
+      <c r="B49" s="103"/>
+      <c r="C49" s="100"/>
+      <c r="D49" s="100"/>
+      <c r="E49" s="100"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="102"/>
-      <c r="C50" s="105"/>
-      <c r="D50" s="105"/>
-      <c r="E50" s="105"/>
+      <c r="B50" s="103"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="100"/>
+      <c r="E50" s="100"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="102"/>
-      <c r="C51" s="105"/>
-      <c r="D51" s="105"/>
-      <c r="E51" s="105"/>
+      <c r="B51" s="103"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="100"/>
+      <c r="E51" s="100"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="103"/>
-      <c r="C52" s="106"/>
-      <c r="D52" s="106"/>
-      <c r="E52" s="106"/>
+      <c r="B52" s="104"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="101"/>
+      <c r="E52" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="E48:E52"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
     <mergeCell ref="B33:B37"/>
     <mergeCell ref="B38:B42"/>
     <mergeCell ref="C13:C17"/>
@@ -2657,19 +2746,18 @@
     <mergeCell ref="E28:E32"/>
     <mergeCell ref="C33:C37"/>
     <mergeCell ref="D33:D37"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E43:E47"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B48:B52"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2817,58 +2905,58 @@
       <c r="C4" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110" t="s">
+      <c r="D4" s="112"/>
+      <c r="E4" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110" t="s">
+      <c r="F4" s="112"/>
+      <c r="G4" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110" t="s">
+      <c r="H4" s="112"/>
+      <c r="I4" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110" t="s">
+      <c r="J4" s="112"/>
+      <c r="K4" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110" t="s">
+      <c r="L4" s="112"/>
+      <c r="M4" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110" t="s">
+      <c r="N4" s="112"/>
+      <c r="O4" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="110"/>
-      <c r="Q4" s="110" t="s">
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="R4" s="110"/>
-      <c r="S4" s="110" t="s">
+      <c r="R4" s="112"/>
+      <c r="S4" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="110"/>
-      <c r="U4" s="110" t="s">
+      <c r="T4" s="112"/>
+      <c r="U4" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="110"/>
-      <c r="W4" s="110" t="s">
+      <c r="V4" s="112"/>
+      <c r="W4" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="X4" s="110"/>
-      <c r="Y4" s="110" t="s">
+      <c r="X4" s="112"/>
+      <c r="Y4" s="112" t="s">
         <v>35</v>
       </c>
-      <c r="Z4" s="111"/>
+      <c r="Z4" s="113"/>
       <c r="AA4" s="28"/>
       <c r="AB4" s="29"/>
       <c r="AC4" s="30"/>
       <c r="AD4" s="30"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="110" t="s">
         <v>36</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -2906,7 +2994,7 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="113"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="41" t="s">
         <v>39</v>
       </c>
@@ -2940,7 +3028,7 @@
       <c r="AD6" s="48"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="113"/>
+      <c r="A7" s="111"/>
       <c r="B7" s="49" t="s">
         <v>40</v>
       </c>
@@ -2974,7 +3062,7 @@
       <c r="AD7" s="48"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="113"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="49" t="s">
         <v>41</v>
       </c>
@@ -3008,7 +3096,7 @@
       <c r="AD8" s="61"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="113"/>
+      <c r="A9" s="111"/>
       <c r="B9" s="49" t="s">
         <v>42</v>
       </c>
@@ -3042,7 +3130,7 @@
       <c r="AD9" s="61"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="113"/>
+      <c r="A10" s="111"/>
       <c r="B10" s="49" t="s">
         <v>43</v>
       </c>
@@ -3648,7 +3736,7 @@
       <c r="AD27" s="48"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="112" t="s">
+      <c r="A28" s="110" t="s">
         <v>50</v>
       </c>
       <c r="B28" s="31" t="s">
@@ -3684,7 +3772,7 @@
       <c r="AD28" s="48"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="113"/>
+      <c r="A29" s="111"/>
       <c r="B29" s="41" t="s">
         <v>52</v>
       </c>
@@ -3718,7 +3806,7 @@
       <c r="AD29" s="48"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="113"/>
+      <c r="A30" s="111"/>
       <c r="B30" s="41" t="s">
         <v>15</v>
       </c>
@@ -3752,7 +3840,7 @@
       <c r="AD30" s="48"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="113"/>
+      <c r="A31" s="111"/>
       <c r="B31" s="41" t="s">
         <v>16</v>
       </c>
@@ -3786,7 +3874,7 @@
       <c r="AD31" s="48"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="113"/>
+      <c r="A32" s="111"/>
       <c r="B32" s="41" t="s">
         <v>17</v>
       </c>
@@ -3820,7 +3908,7 @@
       <c r="AD32" s="48"/>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="113"/>
+      <c r="A33" s="111"/>
       <c r="B33" s="41" t="s">
         <v>18</v>
       </c>
@@ -4123,11 +4211,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
     <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="C2:V2"/>
@@ -4140,6 +4223,11 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:P4"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/jedai_senpuki/Format.xlsx
+++ b/jedai_senpuki/Format.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
   <si>
     <t>　日付　</t>
     <rPh sb="1" eb="3">
@@ -877,6 +877,47 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>セイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本日までにしていたこと
+・外装と回路の接着
+・はんだ付け
+・LED取り付け</t>
+    <rPh sb="0" eb="2">
+      <t>ホンジツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガイソウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイロ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セッチャク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヅ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>組み立て→完成！</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1980,6 +2021,21 @@
     <xf numFmtId="56" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1989,15 +2045,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2007,23 +2054,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2317,11 +2358,11 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="J29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="J38" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="D38" sqref="D38:D42"/>
+      <selection pane="bottomRight" activeCell="C48" sqref="C48:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2335,16 +2376,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1"/>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
@@ -2368,368 +2409,371 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="102">
+      <c r="B3" s="101">
         <v>43364</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="99" t="s">
+      <c r="D3" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="99"/>
+      <c r="E3" s="104"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="103"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="103"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="103"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="104"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="102">
+      <c r="B8" s="101">
         <v>43371</v>
       </c>
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="99" t="s">
+      <c r="D8" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="99"/>
+      <c r="E8" s="104"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="103"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="103"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="103"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="104"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="102">
+      <c r="B13" s="101">
         <v>43378</v>
       </c>
-      <c r="C13" s="99" t="s">
+      <c r="C13" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="99" t="s">
+      <c r="D13" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="99" t="s">
+      <c r="E13" s="104" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="103"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="103"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="103"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="104"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="102">
+      <c r="B18" s="101">
         <v>43385</v>
       </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="103"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="103"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="103"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="104"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="102">
+      <c r="B23" s="101">
         <v>43392</v>
       </c>
-      <c r="C23" s="99" t="s">
+      <c r="C23" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="99" t="s">
+      <c r="D23" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="105" t="s">
+      <c r="E23" s="107" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="103"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="106"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="108"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="103"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="106"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="108"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="103"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="106"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="108"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="104"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="107"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="109"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="102">
+      <c r="B28" s="101">
         <v>43399</v>
       </c>
-      <c r="C28" s="99" t="s">
+      <c r="C28" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="99" t="s">
+      <c r="D28" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="99"/>
+      <c r="E28" s="104"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="103"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="100"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="103"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="103"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="104"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="106"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="102">
+      <c r="B33" s="101">
         <v>43406</v>
       </c>
-      <c r="C33" s="99"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="99"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="104"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="103"/>
-      <c r="C34" s="100"/>
-      <c r="D34" s="100"/>
-      <c r="E34" s="100"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="103"/>
-      <c r="C35" s="100"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="100"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="103"/>
-      <c r="C36" s="100"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="100"/>
+      <c r="B36" s="102"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="104"/>
-      <c r="C37" s="101"/>
-      <c r="D37" s="101"/>
-      <c r="E37" s="101"/>
+      <c r="B37" s="103"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="106"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="102">
+      <c r="B38" s="101">
         <v>43413</v>
       </c>
-      <c r="C38" s="99" t="s">
+      <c r="C38" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="99" t="s">
+      <c r="D38" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="E38" s="99"/>
+      <c r="E38" s="104"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="103"/>
-      <c r="C39" s="100"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="100"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="103"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="100"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="103"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="100"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="105"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="105"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="104"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="101"/>
-      <c r="E42" s="101"/>
+      <c r="B42" s="103"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="106"/>
+      <c r="E42" s="106"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="102">
-        <v>43414</v>
-      </c>
-      <c r="C43" s="99"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="99"/>
+      <c r="B43" s="101">
+        <v>43441</v>
+      </c>
+      <c r="C43" s="104" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="104"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="103"/>
-      <c r="C44" s="100"/>
-      <c r="D44" s="100"/>
-      <c r="E44" s="100"/>
+      <c r="B44" s="102"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="105"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="103"/>
-      <c r="C45" s="100"/>
-      <c r="D45" s="100"/>
-      <c r="E45" s="100"/>
+      <c r="B45" s="102"/>
+      <c r="C45" s="105"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="105"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="103"/>
-      <c r="C46" s="100"/>
-      <c r="D46" s="100"/>
-      <c r="E46" s="100"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="105"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="105"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="104"/>
-      <c r="C47" s="101"/>
-      <c r="D47" s="101"/>
-      <c r="E47" s="101"/>
+      <c r="B47" s="103"/>
+      <c r="C47" s="106"/>
+      <c r="D47" s="106"/>
+      <c r="E47" s="106"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="102">
+      <c r="B48" s="101">
         <v>43415</v>
       </c>
-      <c r="C48" s="99"/>
-      <c r="D48" s="99"/>
-      <c r="E48" s="99"/>
+      <c r="C48" s="104"/>
+      <c r="D48" s="104"/>
+      <c r="E48" s="104"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="103"/>
-      <c r="C49" s="100"/>
-      <c r="D49" s="100"/>
-      <c r="E49" s="100"/>
+      <c r="B49" s="102"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="103"/>
-      <c r="C50" s="100"/>
-      <c r="D50" s="100"/>
-      <c r="E50" s="100"/>
+      <c r="B50" s="102"/>
+      <c r="C50" s="105"/>
+      <c r="D50" s="105"/>
+      <c r="E50" s="105"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="103"/>
-      <c r="C51" s="100"/>
-      <c r="D51" s="100"/>
-      <c r="E51" s="100"/>
+      <c r="B51" s="102"/>
+      <c r="C51" s="105"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="105"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="104"/>
-      <c r="C52" s="101"/>
-      <c r="D52" s="101"/>
-      <c r="E52" s="101"/>
+      <c r="B52" s="103"/>
+      <c r="C52" s="106"/>
+      <c r="D52" s="106"/>
+      <c r="E52" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B18:B22"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="E43:E47"/>
     <mergeCell ref="B33:B37"/>
     <mergeCell ref="B38:B42"/>
     <mergeCell ref="C13:C17"/>
@@ -2746,18 +2790,19 @@
     <mergeCell ref="E28:E32"/>
     <mergeCell ref="C33:C37"/>
     <mergeCell ref="D33:D37"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="E43:E47"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="D48:D52"/>
-    <mergeCell ref="E48:E52"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2905,58 +2950,58 @@
       <c r="C4" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112" t="s">
+      <c r="D4" s="110"/>
+      <c r="E4" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112" t="s">
+      <c r="F4" s="110"/>
+      <c r="G4" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112" t="s">
+      <c r="H4" s="110"/>
+      <c r="I4" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112" t="s">
+      <c r="J4" s="110"/>
+      <c r="K4" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112" t="s">
+      <c r="L4" s="110"/>
+      <c r="M4" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112" t="s">
+      <c r="N4" s="110"/>
+      <c r="O4" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112" t="s">
+      <c r="P4" s="110"/>
+      <c r="Q4" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="R4" s="112"/>
-      <c r="S4" s="112" t="s">
+      <c r="R4" s="110"/>
+      <c r="S4" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="112"/>
-      <c r="U4" s="112" t="s">
+      <c r="T4" s="110"/>
+      <c r="U4" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="112"/>
-      <c r="W4" s="112" t="s">
+      <c r="V4" s="110"/>
+      <c r="W4" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="X4" s="112"/>
-      <c r="Y4" s="112" t="s">
+      <c r="X4" s="110"/>
+      <c r="Y4" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="Z4" s="113"/>
+      <c r="Z4" s="111"/>
       <c r="AA4" s="28"/>
       <c r="AB4" s="29"/>
       <c r="AC4" s="30"/>
       <c r="AD4" s="30"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="112" t="s">
         <v>36</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -2994,7 +3039,7 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="111"/>
+      <c r="A6" s="113"/>
       <c r="B6" s="41" t="s">
         <v>39</v>
       </c>
@@ -3028,7 +3073,7 @@
       <c r="AD6" s="48"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="111"/>
+      <c r="A7" s="113"/>
       <c r="B7" s="49" t="s">
         <v>40</v>
       </c>
@@ -3062,7 +3107,7 @@
       <c r="AD7" s="48"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="111"/>
+      <c r="A8" s="113"/>
       <c r="B8" s="49" t="s">
         <v>41</v>
       </c>
@@ -3096,7 +3141,7 @@
       <c r="AD8" s="61"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="111"/>
+      <c r="A9" s="113"/>
       <c r="B9" s="49" t="s">
         <v>42</v>
       </c>
@@ -3130,7 +3175,7 @@
       <c r="AD9" s="61"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="111"/>
+      <c r="A10" s="113"/>
       <c r="B10" s="49" t="s">
         <v>43</v>
       </c>
@@ -3736,7 +3781,7 @@
       <c r="AD27" s="48"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="110" t="s">
+      <c r="A28" s="112" t="s">
         <v>50</v>
       </c>
       <c r="B28" s="31" t="s">
@@ -3772,7 +3817,7 @@
       <c r="AD28" s="48"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="111"/>
+      <c r="A29" s="113"/>
       <c r="B29" s="41" t="s">
         <v>52</v>
       </c>
@@ -3806,7 +3851,7 @@
       <c r="AD29" s="48"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="111"/>
+      <c r="A30" s="113"/>
       <c r="B30" s="41" t="s">
         <v>15</v>
       </c>
@@ -3840,7 +3885,7 @@
       <c r="AD30" s="48"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="111"/>
+      <c r="A31" s="113"/>
       <c r="B31" s="41" t="s">
         <v>16</v>
       </c>
@@ -3874,7 +3919,7 @@
       <c r="AD31" s="48"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="111"/>
+      <c r="A32" s="113"/>
       <c r="B32" s="41" t="s">
         <v>17</v>
       </c>
@@ -3908,7 +3953,7 @@
       <c r="AD32" s="48"/>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="111"/>
+      <c r="A33" s="113"/>
       <c r="B33" s="41" t="s">
         <v>18</v>
       </c>
@@ -4211,6 +4256,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
     <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="C2:V2"/>
@@ -4223,11 +4273,6 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:P4"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
